--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -220,15 +220,15 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
@@ -244,33 +244,33 @@
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -286,15 +286,15 @@
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -313,21 +313,21 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -346,13 +346,13 @@
     <t>6 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2671,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>108</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4293,17 +4293,17 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
+        <v>175</v>
+      </c>
+      <c r="O23">
         <v>182</v>
       </c>
-      <c r="O23">
-        <v>186</v>
-      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="BA23">
-        <v>5697</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="24" spans="1:53">

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -220,46 +220,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
@@ -268,9 +271,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -283,18 +283,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
+    <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -304,30 +304,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -343,16 +343,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
-    <t>15 ml</t>
+    <t>6's</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2671,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O23">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="BA23">
-        <v>10079</v>
+        <v>12271</v>
       </c>
     </row>
     <row r="24" spans="1:53">

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -220,54 +220,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -313,12 +313,12 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -349,10 +349,10 @@
     <t>6 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -220,57 +220,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -283,18 +283,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -304,30 +304,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -343,16 +343,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1693,7 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -220,57 +220,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol TR 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -283,18 +283,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -304,36 +304,36 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -343,16 +343,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1693,7 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>108</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4293,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O23">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="BA23">
-        <v>12271</v>
+        <v>15558</v>
       </c>
     </row>
     <row r="24" spans="1:53">

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>BSL NO</t>
   </si>
@@ -28,7 +28,7 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>YesterdaySales</t>
+    <t>YesterdaySalesQty</t>
   </si>
   <si>
     <t>Avg Sales/Day</t>
@@ -175,6 +175,18 @@
     <t>Estimated Sales</t>
   </si>
   <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TP Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sales Value</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -232,45 +244,45 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -283,18 +295,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
+    <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -304,21 +316,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -328,12 +340,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>60 's</t>
+  </si>
+  <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -343,16 +355,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>6 's</t>
+    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -710,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA27"/>
+  <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,19 +888,31 @@
       <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:57">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1037,19 +1061,31 @@
       <c r="BA2">
         <v>0</v>
       </c>
+      <c r="BB2">
+        <v>18.74</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:57">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1198,19 +1234,31 @@
       <c r="BA3">
         <v>0</v>
       </c>
+      <c r="BB3">
+        <v>179.91</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:57">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1359,19 +1407,31 @@
       <c r="BA4">
         <v>0</v>
       </c>
+      <c r="BB4">
+        <v>224.89</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:57">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1520,19 +1580,31 @@
       <c r="BA5">
         <v>0</v>
       </c>
+      <c r="BB5">
+        <v>78.70999999999999</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:57">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1681,19 +1753,31 @@
       <c r="BA6">
         <v>0</v>
       </c>
+      <c r="BB6">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:57">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1842,19 +1926,31 @@
       <c r="BA7">
         <v>0</v>
       </c>
+      <c r="BB7">
+        <v>209.9</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:57">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2003,19 +2099,31 @@
       <c r="BA8">
         <v>0</v>
       </c>
+      <c r="BB8">
+        <v>269.87</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:57">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2164,19 +2272,31 @@
       <c r="BA9">
         <v>0</v>
       </c>
+      <c r="BB9">
+        <v>209.9</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:57">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2325,19 +2445,31 @@
       <c r="BA10">
         <v>0</v>
       </c>
+      <c r="BB10">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:57">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2486,19 +2618,31 @@
       <c r="BA11">
         <v>0</v>
       </c>
+      <c r="BB11">
+        <v>237.74</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:57">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2647,19 +2791,31 @@
       <c r="BA12">
         <v>0</v>
       </c>
+      <c r="BB12">
+        <v>284.21</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:57">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2808,19 +2964,31 @@
       <c r="BA13">
         <v>0</v>
       </c>
+      <c r="BB13">
+        <v>389.8</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:57">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2969,19 +3137,31 @@
       <c r="BA14">
         <v>0</v>
       </c>
+      <c r="BB14">
+        <v>150.38</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:57">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3130,19 +3310,31 @@
       <c r="BA15">
         <v>0</v>
       </c>
+      <c r="BB15">
+        <v>206.77</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:57">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3291,19 +3483,31 @@
       <c r="BA16">
         <v>0</v>
       </c>
+      <c r="BB16">
+        <v>165.41</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:57">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3452,19 +3656,31 @@
       <c r="BA17">
         <v>0</v>
       </c>
+      <c r="BB17">
+        <v>180.45</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:57">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3613,19 +3829,31 @@
       <c r="BA18">
         <v>0</v>
       </c>
+      <c r="BB18">
+        <v>262.37</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:57">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3774,19 +4002,31 @@
       <c r="BA19">
         <v>0</v>
       </c>
+      <c r="BB19">
+        <v>224.89</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:57">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3935,19 +4175,31 @@
       <c r="BA20">
         <v>0</v>
       </c>
+      <c r="BB20">
+        <v>224.89</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:57">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4096,19 +4348,31 @@
       <c r="BA21">
         <v>0</v>
       </c>
+      <c r="BB21">
+        <v>209.9</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:57">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4257,19 +4521,31 @@
       <c r="BA22">
         <v>0</v>
       </c>
+      <c r="BB22">
+        <v>215.89</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:57">
       <c r="A23">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4418,19 +4694,31 @@
       <c r="BA23">
         <v>15558</v>
       </c>
+      <c r="BB23">
+        <v>219.13</v>
+      </c>
+      <c r="BC23">
+        <v>219.13</v>
+      </c>
+      <c r="BD23">
+        <v>219.13</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:57">
       <c r="A24">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4579,19 +4867,31 @@
       <c r="BA24">
         <v>0</v>
       </c>
+      <c r="BB24">
+        <v>136.83</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:57">
       <c r="A25">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4740,19 +5040,31 @@
       <c r="BA25">
         <v>0</v>
       </c>
+      <c r="BB25">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:57">
       <c r="A26">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4901,19 +5213,31 @@
       <c r="BA26">
         <v>0</v>
       </c>
+      <c r="BB26">
+        <v>97.45</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:57">
       <c r="A27">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5060,6 +5384,18 @@
         <v>0</v>
       </c>
       <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -232,27 +232,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -295,18 +295,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -355,16 +355,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>179.91</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>262.37</v>
+        <v>180.45</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>136.83</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>71.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>97.45</v>
+        <v>136.83</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>89.95999999999999</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC27">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -232,48 +232,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -298,15 +298,15 @@
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -316,30 +316,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -358,13 +358,13 @@
     <t>6's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>224.89</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>165.41</v>
+        <v>150.38</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>112</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4569,16 +4569,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O23">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4698,10 +4698,10 @@
         <v>219.13</v>
       </c>
       <c r="BC23">
-        <v>219.13</v>
+        <v>0</v>
       </c>
       <c r="BD23">
-        <v>219.13</v>
+        <v>0</v>
       </c>
       <c r="BE23">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>97.45</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>136.83</v>
+        <v>97.45</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>71.95999999999999</v>
+        <v>136.83</v>
       </c>
       <c r="BC27">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -232,46 +232,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 100mg Capsule</t>
@@ -280,9 +283,6 @@
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -295,18 +295,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -316,21 +316,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -355,16 +355,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>224.89</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>206.77</v>
+        <v>150.38</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>150.38</v>
+        <v>206.77</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>224.89</v>
+        <v>180.45</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -4026,7 +4026,7 @@
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>89.95999999999999</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>71.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>97.45</v>
+        <v>136.83</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>136.83</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC27">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>BSL NO</t>
   </si>
@@ -223,6 +223,9 @@
     <t>Osticare</t>
   </si>
   <si>
+    <t>Rupaday</t>
+  </si>
+  <si>
     <t>Sk-Mox</t>
   </si>
   <si>
@@ -232,48 +235,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -292,21 +295,24 @@
     <t>Osticare Tablet 24's</t>
   </si>
   <si>
+    <t>Rupaday Oral Solution 60ml</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -316,30 +322,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -352,19 +358,22 @@
     <t>24's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>48 's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -722,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE27"/>
+  <dimension ref="A1:BE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,10 +918,10 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1082,10 +1091,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1235,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>224.89</v>
+        <v>179.91</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1255,10 +1264,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1428,10 +1437,10 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1601,10 +1610,10 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1774,7 +1783,7 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
@@ -1927,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -1947,10 +1956,10 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2120,10 +2129,10 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2273,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2293,10 +2302,10 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2466,10 +2475,10 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2619,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2639,10 +2648,10 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2792,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -2812,10 +2821,10 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2827,7 +2836,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2985,10 +2994,10 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3138,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>165.41</v>
+        <v>206.77</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -3158,10 +3167,10 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3311,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3331,10 +3340,10 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3484,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>206.77</v>
+        <v>150.38</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3504,10 +3513,10 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3677,10 +3686,10 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3850,10 +3859,10 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4023,10 +4032,10 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4196,10 +4205,10 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4369,10 +4378,10 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4536,16 +4545,16 @@
     </row>
     <row r="23" spans="1:57">
       <c r="A23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4554,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4569,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4593,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4647,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4674,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -4689,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BA23">
-        <v>15558</v>
+        <v>0</v>
       </c>
       <c r="BB23">
-        <v>219.13</v>
+        <v>56.22</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -4709,16 +4718,16 @@
     </row>
     <row r="24" spans="1:57">
       <c r="A24">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4733,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4742,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4766,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -4820,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -4847,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AV24">
         <v>0</v>
@@ -4862,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>15777</v>
       </c>
       <c r="BB24">
-        <v>71.95999999999999</v>
+        <v>219.13</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -4885,13 +4894,13 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5041,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>97.45</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5058,13 +5067,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5231,13 +5240,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5387,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>89.95999999999999</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -5396,6 +5405,179 @@
         <v>0</v>
       </c>
       <c r="BE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>97.45</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -247,34 +247,37 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -283,9 +286,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -301,18 +301,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -322,36 +322,36 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -364,16 +364,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1786,7 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>206.77</v>
+        <v>165.41</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>165.41</v>
+        <v>150.38</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>150.38</v>
+        <v>206.77</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>224.89</v>
+        <v>180.45</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>89.95999999999999</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>71.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>97.45</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC28">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -235,57 +235,57 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -322,21 +322,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -367,13 +367,13 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>224.89</v>
+        <v>179.91</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>150.38</v>
+        <v>206.77</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>206.77</v>
+        <v>150.38</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>224.89</v>
+        <v>262.37</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>136.83</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>97.45</v>
+        <v>136.83</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>89.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BC28">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -235,27 +235,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -268,13 +268,16 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
@@ -283,9 +286,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -364,10 +364,10 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
   <si>
     <t>6 's</t>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>224.89</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>165.41</v>
+        <v>206.77</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>206.77</v>
+        <v>150.38</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>180.45</v>
+        <v>224.89</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>262.37</v>
+        <v>180.45</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>224.89</v>
+        <v>262.37</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>115</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O24">
         <v>177</v>
@@ -4871,19 +4871,19 @@
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="BA24">
-        <v>15777</v>
+        <v>21913</v>
       </c>
       <c r="BB24">
         <v>219.13</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>219.13</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>219.13</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>71.95999999999999</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>89.95999999999999</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC26">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -235,27 +235,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -271,21 +271,21 @@
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -301,18 +301,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -346,12 +346,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -364,16 +364,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>224.89</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>165.41</v>
+        <v>150.38</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>262.37</v>
+        <v>180.45</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>583</v>
+        <v>1020</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>115</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4751,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O24">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AV24">
         <v>0</v>
@@ -4871,19 +4871,19 @@
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="BA24">
-        <v>21913</v>
+        <v>28706</v>
       </c>
       <c r="BB24">
         <v>219.13</v>
       </c>
       <c r="BC24">
-        <v>219.13</v>
+        <v>0</v>
       </c>
       <c r="BD24">
-        <v>219.13</v>
+        <v>0</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>89.95999999999999</v>
+        <v>136.83</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>71.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>136.83</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>97.45</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BC28">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>BSL NO</t>
   </si>
@@ -55,19 +55,22 @@
     <t>Monthly Sales Trend Achiv</t>
   </si>
   <si>
-    <t>Remaing Stock</t>
+    <t>Remaining TM Sales Qty</t>
   </si>
   <si>
     <t>Nationwide Stock</t>
   </si>
   <si>
+    <t>Total SKF Qty</t>
+  </si>
+  <si>
     <t>SKF Mirpur Plant</t>
   </si>
   <si>
     <t>SKF Tongi Plant</t>
   </si>
   <si>
-    <t>SKF Rupganj Plant</t>
+    <t>AvgSaleVRB</t>
   </si>
   <si>
     <t>TDCL Central WH</t>
@@ -235,48 +238,48 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -301,18 +304,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
+    <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -322,30 +325,30 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -364,16 +367,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
   </si>
   <si>
-    <t>30ml</t>
+    <t>15 ml</t>
   </si>
   <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -731,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE28"/>
+  <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,19 +912,22 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:58">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1071,30 +1077,33 @@
         <v>0</v>
       </c>
       <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
         <v>18.74</v>
       </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
       <c r="BD2">
         <v>0</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:58">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1244,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>179.91</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1255,19 +1264,22 @@
       <c r="BE3">
         <v>0</v>
       </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:58">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1417,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>78.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>179.91</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1428,19 +1440,22 @@
       <c r="BE4">
         <v>0</v>
       </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:58">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1590,30 +1605,33 @@
         <v>0</v>
       </c>
       <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
         <v>224.89</v>
       </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:58">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1763,30 +1781,33 @@
         <v>0</v>
       </c>
       <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
         <v>93.70999999999999</v>
       </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:58">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1936,30 +1957,33 @@
         <v>0</v>
       </c>
       <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
         <v>209.9</v>
       </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BE7">
         <v>0</v>
       </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:58">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2109,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>269.87</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>209.9</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2120,19 +2144,22 @@
       <c r="BE8">
         <v>0</v>
       </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:58">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2282,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>209.9</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>269.87</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2293,19 +2320,22 @@
       <c r="BE9">
         <v>0</v>
       </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:58">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2455,30 +2485,33 @@
         <v>0</v>
       </c>
       <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
         <v>74.95999999999999</v>
       </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
       <c r="BD10">
         <v>0</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:58">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2628,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>284.21</v>
+        <v>0</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>237.74</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2639,19 +2672,22 @@
       <c r="BE11">
         <v>0</v>
       </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:58">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2801,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>237.74</v>
+        <v>0</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>284.21</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2812,19 +2848,22 @@
       <c r="BE12">
         <v>0</v>
       </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:58">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2836,7 +2875,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2974,30 +3013,33 @@
         <v>0</v>
       </c>
       <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
         <v>389.8</v>
       </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
       <c r="BD13">
         <v>0</v>
       </c>
       <c r="BE13">
         <v>0</v>
       </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:58">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3147,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>206.77</v>
+        <v>0</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>165.41</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3158,19 +3200,22 @@
       <c r="BE14">
         <v>0</v>
       </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:58">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3320,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>165.41</v>
+        <v>0</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>150.38</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3331,19 +3376,22 @@
       <c r="BE15">
         <v>0</v>
       </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:58">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3493,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>150.38</v>
+        <v>0</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>206.77</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3504,16 +3552,19 @@
       <c r="BE16">
         <v>0</v>
       </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:58">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -3666,30 +3717,33 @@
         <v>0</v>
       </c>
       <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
         <v>224.89</v>
       </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
       <c r="BD17">
         <v>0</v>
       </c>
       <c r="BE17">
         <v>0</v>
       </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:58">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3839,30 +3893,33 @@
         <v>0</v>
       </c>
       <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
         <v>262.37</v>
       </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
       <c r="BD18">
         <v>0</v>
       </c>
       <c r="BE18">
         <v>0</v>
       </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:58">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4012,27 +4069,30 @@
         <v>0</v>
       </c>
       <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
         <v>180.45</v>
       </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
       <c r="BD19">
         <v>0</v>
       </c>
       <c r="BE19">
         <v>0</v>
       </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:58">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -4185,30 +4245,33 @@
         <v>0</v>
       </c>
       <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
         <v>224.89</v>
       </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
       <c r="BD20">
         <v>0</v>
       </c>
       <c r="BE20">
         <v>0</v>
       </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:58">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4358,30 +4421,33 @@
         <v>0</v>
       </c>
       <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
         <v>209.9</v>
       </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
       <c r="BD21">
         <v>0</v>
       </c>
       <c r="BE21">
         <v>0</v>
       </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:58">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4531,30 +4597,33 @@
         <v>0</v>
       </c>
       <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
         <v>215.89</v>
       </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
       <c r="BD22">
         <v>0</v>
       </c>
       <c r="BE22">
         <v>0</v>
       </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:58">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4566,7 +4635,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4578,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4704,33 +4773,36 @@
         <v>0</v>
       </c>
       <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
         <v>56.22</v>
       </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
       <c r="BD23">
         <v>0</v>
       </c>
       <c r="BE23">
         <v>0</v>
       </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:58">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4742,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4751,13 +4823,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>175</v>
@@ -4775,11 +4847,11 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>175</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -4829,11 +4901,11 @@
         <v>0</v>
       </c>
       <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
         <v>21</v>
       </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
       <c r="AN24">
         <v>0</v>
       </c>
@@ -4856,11 +4928,11 @@
         <v>0</v>
       </c>
       <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>154</v>
       </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
       <c r="AW24">
         <v>0</v>
       </c>
@@ -4871,36 +4943,39 @@
         <v>0</v>
       </c>
       <c r="AZ24">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>28706</v>
+        <v>135</v>
       </c>
       <c r="BB24">
+        <v>29582</v>
+      </c>
+      <c r="BC24">
         <v>219.13</v>
       </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
       <c r="BD24">
-        <v>0</v>
+        <v>438.26</v>
       </c>
       <c r="BE24">
+        <v>438.26</v>
+      </c>
+      <c r="BF24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:58">
       <c r="A25">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5050,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>136.83</v>
+        <v>0</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>97.45</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5061,19 +5136,22 @@
       <c r="BE25">
         <v>0</v>
       </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:57">
+    <row r="26" spans="1:58">
       <c r="A26">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5223,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>97.45</v>
+        <v>0</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>136.83</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5234,19 +5312,22 @@
       <c r="BE26">
         <v>0</v>
       </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:58">
       <c r="A27">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5396,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>89.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -5407,19 +5488,22 @@
       <c r="BE27">
         <v>0</v>
       </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:58">
       <c r="A28">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5569,15 +5653,18 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>71.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BD28">
         <v>0</v>
       </c>
       <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -238,46 +238,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -286,9 +289,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -304,18 +304,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -334,27 +334,27 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -367,16 +367,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>224.89</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>165.41</v>
+        <v>150.38</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>150.38</v>
+        <v>206.77</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>206.77</v>
+        <v>165.41</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>224.89</v>
+        <v>180.45</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>1069</v>
+        <v>1117</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>116</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -4946,19 +4946,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BB24">
-        <v>29582</v>
+        <v>30239</v>
       </c>
       <c r="BC24">
         <v>219.13</v>
       </c>
       <c r="BD24">
-        <v>438.26</v>
+        <v>0</v>
       </c>
       <c r="BE24">
-        <v>438.26</v>
+        <v>0</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>97.45</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>136.83</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>71.95999999999999</v>
+        <v>136.83</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>89.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BD28">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -238,54 +238,54 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -307,15 +307,15 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -334,21 +334,21 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>60 's</t>
   </si>
   <si>
@@ -370,13 +370,13 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>179.91</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>78.70999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>206.77</v>
+        <v>150.38</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>165.41</v>
+        <v>206.77</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>180.45</v>
+        <v>224.89</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>224.89</v>
+        <v>180.45</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>89.95999999999999</v>
+        <v>136.83</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>136.83</v>
+        <v>97.45</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>97.45</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BD28">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
   <si>
     <t>BSL NO</t>
   </si>
@@ -190,6 +190,9 @@
     <t>Discount</t>
   </si>
   <si>
+    <t>Biltin</t>
+  </si>
+  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -235,30 +238,33 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Biltin 20mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -271,15 +277,15 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -316,12 +322,12 @@
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>60 ml</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -343,10 +349,10 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
-  </si>
-  <si>
-    <t>5 's</t>
   </si>
   <si>
     <t>60 's</t>
@@ -734,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF28"/>
+  <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,16 +924,16 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -963,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>18.74</v>
+        <v>337.33</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1094,16 +1100,16 @@
     </row>
     <row r="3" spans="1:58">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1256,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>78.70999999999999</v>
+        <v>18.74</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1273,13 +1279,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1449,13 +1455,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1622,13 +1628,13 @@
     </row>
     <row r="6" spans="1:58">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>93.70999999999999</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -1798,16 +1804,16 @@
     </row>
     <row r="7" spans="1:58">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1960,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>209.9</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1977,13 +1983,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2153,13 +2159,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2312,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2326,16 +2332,16 @@
     </row>
     <row r="10" spans="1:58">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2488,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>74.95999999999999</v>
+        <v>209.9</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -2502,16 +2508,16 @@
     </row>
     <row r="11" spans="1:58">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2664,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>237.74</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2681,13 +2687,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2854,16 +2860,16 @@
     </row>
     <row r="13" spans="1:58">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2872,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3016,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>389.8</v>
+        <v>284.21</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -3030,16 +3036,16 @@
     </row>
     <row r="14" spans="1:58">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3048,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3192,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>165.41</v>
+        <v>389.8</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3209,13 +3215,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3368,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>150.38</v>
+        <v>206.77</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3385,13 +3391,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3544,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>206.77</v>
+        <v>150.38</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3558,16 +3564,16 @@
     </row>
     <row r="17" spans="1:58">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3720,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>224.89</v>
+        <v>165.41</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3737,13 +3743,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3896,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>180.45</v>
+        <v>224.89</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -3913,13 +3919,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>262.37</v>
+        <v>180.45</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4086,16 +4092,16 @@
     </row>
     <row r="20" spans="1:58">
       <c r="A20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4248,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>224.89</v>
+        <v>262.37</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -4262,16 +4268,16 @@
     </row>
     <row r="21" spans="1:58">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4424,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>209.9</v>
+        <v>224.89</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -4438,16 +4444,16 @@
     </row>
     <row r="22" spans="1:58">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4600,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>215.89</v>
+        <v>209.9</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -4614,16 +4620,16 @@
     </row>
     <row r="23" spans="1:58">
       <c r="A23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4632,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4647,13 +4653,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4776,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>56.22</v>
+        <v>215.89</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -4790,16 +4796,16 @@
     </row>
     <row r="24" spans="1:58">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4808,13 +4814,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="I24">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4823,16 +4829,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="O24">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4850,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4904,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -4931,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -4946,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BB24">
-        <v>30239</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>219.13</v>
+        <v>56.22</v>
       </c>
       <c r="BD24">
         <v>0</v>
@@ -4966,16 +4972,16 @@
     </row>
     <row r="25" spans="1:58">
       <c r="A25">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4990,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5008,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -5026,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -5080,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -5107,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5122,13 +5128,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>32869</v>
       </c>
       <c r="BC25">
-        <v>71.95999999999999</v>
+        <v>219.13</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5145,13 +5151,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5304,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>136.83</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5321,13 +5327,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5480,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>97.45</v>
+        <v>136.83</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -5497,13 +5503,13 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5656,15 +5662,191 @@
         <v>0</v>
       </c>
       <c r="BC28">
+        <v>97.45</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
         <v>89.95999999999999</v>
       </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>BSL NO</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Biltin</t>
-  </si>
-  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Zithrox</t>
   </si>
   <si>
-    <t>Biltin 20mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
@@ -256,15 +250,15 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -280,12 +274,12 @@
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
@@ -310,33 +304,33 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
+    <t>60 ml</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
@@ -373,16 +367,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -740,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF29"/>
+  <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,16 +918,16 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -969,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1086,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>337.33</v>
+        <v>18.74</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1100,16 +1094,16 @@
     </row>
     <row r="3" spans="1:58">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1262,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>18.74</v>
+        <v>224.89</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1279,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1438,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>224.89</v>
+        <v>179.91</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1455,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1614,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>179.91</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1628,13 +1622,13 @@
     </row>
     <row r="6" spans="1:58">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
@@ -1790,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>78.70999999999999</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -1804,16 +1798,16 @@
     </row>
     <row r="7" spans="1:58">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1966,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>93.70999999999999</v>
+        <v>209.9</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1983,13 +1977,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2142,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>269.87</v>
+        <v>209.9</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2159,13 +2153,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2318,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>209.9</v>
+        <v>269.87</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2332,16 +2326,16 @@
     </row>
     <row r="10" spans="1:58">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2494,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>209.9</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -2508,16 +2502,16 @@
     </row>
     <row r="11" spans="1:58">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2670,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>74.95999999999999</v>
+        <v>237.74</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2687,13 +2681,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2846,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2860,16 +2854,16 @@
     </row>
     <row r="13" spans="1:58">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2878,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3022,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>284.21</v>
+        <v>389.8</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -3036,16 +3030,16 @@
     </row>
     <row r="14" spans="1:58">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3054,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3198,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>389.8</v>
+        <v>206.77</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3215,13 +3209,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3374,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>206.77</v>
+        <v>165.41</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3391,13 +3385,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3564,16 +3558,16 @@
     </row>
     <row r="17" spans="1:58">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3726,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>165.41</v>
+        <v>224.89</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3743,13 +3737,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3902,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>224.89</v>
+        <v>180.45</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -3919,13 +3913,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4078,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4092,16 +4086,16 @@
     </row>
     <row r="20" spans="1:58">
       <c r="A20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4254,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -4268,16 +4262,16 @@
     </row>
     <row r="21" spans="1:58">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4430,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>224.89</v>
+        <v>209.9</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -4444,16 +4438,16 @@
     </row>
     <row r="22" spans="1:58">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4606,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>209.9</v>
+        <v>215.89</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -4620,16 +4614,16 @@
     </row>
     <row r="23" spans="1:58">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4638,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4653,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -4782,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>215.89</v>
+        <v>56.22</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -4796,16 +4790,16 @@
     </row>
     <row r="24" spans="1:58">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4814,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4829,16 +4823,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4856,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4910,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -4937,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -4952,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>35060</v>
       </c>
       <c r="BC24">
-        <v>56.22</v>
+        <v>219.13</v>
       </c>
       <c r="BD24">
         <v>0</v>
@@ -4972,16 +4966,16 @@
     </row>
     <row r="25" spans="1:58">
       <c r="A25">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4996,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5005,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5014,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -5032,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -5086,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -5113,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5128,13 +5122,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BB25">
-        <v>32869</v>
+        <v>0</v>
       </c>
       <c r="BC25">
-        <v>219.13</v>
+        <v>97.45</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5151,13 +5145,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5310,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>71.95999999999999</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5327,13 +5321,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5503,13 +5497,13 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5662,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>97.45</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -5671,182 +5665,6 @@
         <v>0</v>
       </c>
       <c r="BF28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>89.95999999999999</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -250,24 +250,24 @@
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
@@ -280,15 +280,15 @@
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -304,18 +304,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -325,21 +325,21 @@
     <t>50's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>4's</t>
   </si>
   <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -367,16 +367,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>6 's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
   </si>
 </sst>
 </file>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>310</v>
       </c>
       <c r="H13">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>224.89</v>
+        <v>262.37</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>180.45</v>
+        <v>224.89</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>262.37</v>
+        <v>180.45</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>1360</v>
+        <v>1409</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="BB24">
-        <v>35060</v>
+        <v>36594</v>
       </c>
       <c r="BC24">
         <v>219.13</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>97.45</v>
+        <v>136.83</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>136.83</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>71.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BD28">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>BSL NO</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Biltin</t>
-  </si>
-  <si>
     <t>Desodin</t>
   </si>
   <si>
@@ -238,60 +235,57 @@
     <t>Zithrox</t>
   </si>
   <si>
-    <t>Biltin 20mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
+    <t>Kynol D 25mg Tablet</t>
+  </si>
+  <si>
     <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
@@ -313,21 +307,21 @@
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet</t>
   </si>
   <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
+    <t>60 ml</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -340,12 +334,12 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
@@ -376,10 +370,10 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
     <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
@@ -740,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF29"/>
+  <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,16 +918,16 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -969,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1086,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>337.33</v>
+        <v>18.74</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1100,16 +1094,16 @@
     </row>
     <row r="3" spans="1:58">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1262,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>18.74</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1279,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1455,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1628,13 +1622,13 @@
     </row>
     <row r="6" spans="1:58">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
@@ -1790,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>78.70999999999999</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -1804,16 +1798,16 @@
     </row>
     <row r="7" spans="1:58">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1966,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>93.70999999999999</v>
+        <v>209.9</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1983,13 +1977,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2159,13 +2153,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2332,16 +2326,16 @@
     </row>
     <row r="10" spans="1:58">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2350,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2494,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>209.9</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -2508,16 +2502,16 @@
     </row>
     <row r="11" spans="1:58">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2670,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>74.95999999999999</v>
+        <v>284.21</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2687,13 +2681,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2860,16 +2854,16 @@
     </row>
     <row r="13" spans="1:58">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2878,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3022,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>284.21</v>
+        <v>389.8</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -3036,16 +3030,16 @@
     </row>
     <row r="14" spans="1:58">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3054,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3198,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>389.8</v>
+        <v>150.38</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3215,13 +3209,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3391,13 +3385,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3550,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3564,16 +3558,16 @@
     </row>
     <row r="17" spans="1:58">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3726,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>165.41</v>
+        <v>180.45</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3743,13 +3737,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3919,13 +3913,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4078,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4092,16 +4086,16 @@
     </row>
     <row r="20" spans="1:58">
       <c r="A20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4254,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -4268,16 +4262,16 @@
     </row>
     <row r="21" spans="1:58">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4430,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>224.89</v>
+        <v>209.9</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -4444,16 +4438,16 @@
     </row>
     <row r="22" spans="1:58">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4606,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>209.9</v>
+        <v>215.89</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -4620,16 +4614,16 @@
     </row>
     <row r="23" spans="1:58">
       <c r="A23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4638,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4782,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>215.89</v>
+        <v>56.22</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -4796,16 +4790,16 @@
     </row>
     <row r="24" spans="1:58">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4814,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4829,16 +4823,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4856,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4910,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -4937,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -4952,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>6793</v>
       </c>
       <c r="BC24">
-        <v>56.22</v>
+        <v>219.13</v>
       </c>
       <c r="BD24">
         <v>0</v>
@@ -4972,16 +4966,16 @@
     </row>
     <row r="25" spans="1:58">
       <c r="A25">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4996,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5005,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5014,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -5032,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -5086,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -5113,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5128,13 +5122,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BB25">
-        <v>32869</v>
+        <v>0</v>
       </c>
       <c r="BC25">
-        <v>219.13</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5151,13 +5145,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5310,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>71.95999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -5327,13 +5321,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5503,13 +5497,13 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5662,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>97.45</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -5671,182 +5665,6 @@
         <v>0</v>
       </c>
       <c r="BF28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>89.95999999999999</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -238,12 +238,12 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dinafex 120mg Tablet</t>
   </si>
   <si>
@@ -262,33 +262,33 @@
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule - 36's</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet</t>
   </si>
   <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+    <t>Kynol TR 100mg Capsule</t>
+  </si>
+  <si>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -334,25 +334,25 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>30 's</t>
+  </si>
+  <si>
     <t>36 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
+    <t>50 's</t>
   </si>
   <si>
     <t>60 's</t>
-  </si>
-  <si>
-    <t>50 's</t>
   </si>
   <si>
     <t>40 's</t>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>78.70999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>224.89</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>514</v>
       </c>
       <c r="H10">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>284.21</v>
+        <v>237.74</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>237.74</v>
+        <v>284.21</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>217</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>150.38</v>
+        <v>165.41</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>165.41</v>
+        <v>150.38</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>180.45</v>
+        <v>262.37</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>262.37</v>
+        <v>180.45</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>1713</v>
       </c>
       <c r="H23">
-        <v>442</v>
+        <v>718</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>116</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -4946,19 +4946,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="BB24">
-        <v>6793</v>
+        <v>9860</v>
       </c>
       <c r="BC24">
         <v>219.13</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>219.13</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>219.13</v>
       </c>
       <c r="BF24">
         <v>0</v>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>BSL NO</t>
   </si>
@@ -190,79 +190,157 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Altadin</t>
-  </si>
-  <si>
-    <t>Betagan</t>
-  </si>
-  <si>
-    <t>Bimatol</t>
-  </si>
-  <si>
-    <t>Binzotim</t>
-  </si>
-  <si>
-    <t>Dextor OPT</t>
-  </si>
-  <si>
-    <t>Fluflam</t>
-  </si>
-  <si>
-    <t>Lotrel</t>
-  </si>
-  <si>
-    <t>Poly Pred</t>
-  </si>
-  <si>
-    <t>Pred OPT</t>
-  </si>
-  <si>
-    <t>Zolopt</t>
-  </si>
-  <si>
-    <t>Zymar</t>
-  </si>
-  <si>
-    <t>Altadin 0.25% Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Betagan 0.5% 5 ml</t>
-  </si>
-  <si>
-    <t>Bimatol 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Binzotim Ophthalmic Suspension 5ml</t>
-  </si>
-  <si>
-    <t>Dextor T Ophthalmic Suspension, 5ml</t>
-  </si>
-  <si>
-    <t>Fluflam 0.1% Opthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Lotrel 0.5% Opthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Poly Pred 5ml</t>
-  </si>
-  <si>
-    <t>PRED 5ml Ophthalmic Suspension</t>
-  </si>
-  <si>
-    <t>Zolopt Ophthalmic Suspension 5ml</t>
-  </si>
-  <si>
-    <t>Zymar 5ml</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>5 ml.</t>
-  </si>
-  <si>
-    <t>5ml</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardobis</t>
+  </si>
+  <si>
+    <t>Cardon</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>Edenil</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noclog</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sidopin</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardobis 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoplus 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoplus 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Edenil 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog Plus 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Noclog Plus Tablet 30's</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sidoplus 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40 's</t>
   </si>
 </sst>
 </file>
@@ -620,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF12"/>
+  <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,16 +882,16 @@
     </row>
     <row r="2" spans="1:58">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -966,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>299.85</v>
+        <v>179.91</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -986,10 +1064,10 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1142,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>172.82</v>
+        <v>134.93</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1162,10 +1240,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1318,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>487.26</v>
+        <v>179.91</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1332,16 +1410,16 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1494,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>412.29</v>
+        <v>119.94</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1508,16 +1586,16 @@
     </row>
     <row r="6" spans="1:58">
       <c r="A6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1670,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>112.44</v>
+        <v>224.89</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -1684,16 +1762,16 @@
     </row>
     <row r="7" spans="1:58">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1846,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>74.95999999999999</v>
+        <v>157.42</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -1860,16 +1938,16 @@
     </row>
     <row r="8" spans="1:58">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2022,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>131.18</v>
+        <v>359.82</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2036,16 +2114,16 @@
     </row>
     <row r="9" spans="1:58">
       <c r="A9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2198,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>168.23</v>
+        <v>224.89</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2212,16 +2290,16 @@
     </row>
     <row r="10" spans="1:58">
       <c r="A10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2374,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -2388,16 +2466,16 @@
     </row>
     <row r="11" spans="1:58">
       <c r="A11">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2550,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>374.81</v>
+        <v>359.82</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -2564,177 +2642,3169 @@
     </row>
     <row r="12" spans="1:58">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>179.91</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>179.91</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>112.44</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>112.44</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>224.89</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>179.91</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>179.91</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>224.89</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>269.87</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>299.85</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>179.91</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>179.91</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>269.87</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>269.87</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>186.26</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>149.93</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>179.91</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>194.9</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>187.41</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>BSL NO</t>
   </si>
@@ -49,6 +49,12 @@
     <t>Monthly Sales Acv</t>
   </si>
   <si>
+    <t>LM MTD Sales Target</t>
+  </si>
+  <si>
+    <t>LM MTD Sales</t>
+  </si>
+  <si>
     <t>Monthly Sales Trend</t>
   </si>
   <si>
@@ -64,10 +70,10 @@
     <t>Total SKF Qty</t>
   </si>
   <si>
-    <t>SKF Mirpur Plant</t>
-  </si>
-  <si>
-    <t>SKF Tongi Plant</t>
+    <t>AvgSaleSYL</t>
+  </si>
+  <si>
+    <t>AvgSaleTGL</t>
   </si>
   <si>
     <t>AvgSaleVRB</t>
@@ -190,9 +196,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>MTD Sales Target Value</t>
-  </si>
-  <si>
     <t>Actual Sales MTD Value</t>
   </si>
   <si>
@@ -208,106 +211,106 @@
     <t>Softi</t>
   </si>
   <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
     <t>Esoral 20mg Tablet</t>
   </si>
   <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
     <t>Esoral 20mg Capsule 50's</t>
   </si>
   <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
     <t>Esoral 40mg EC Tablet - 42's</t>
   </si>
   <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
   </si>
   <si>
     <t>Losectil 20mg Capsule (100's)</t>
   </si>
   <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
     <t>Rabifast 20mg Tablet - 50's</t>
   </si>
   <si>
     <t>Softi Ointment 15gm</t>
   </si>
   <si>
+    <t>Bundle</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>42's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>100's</t>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>48's</t>
   </si>
   <si>
     <t>100 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>500's</t>
   </si>
   <si>
     <t>15gm</t>
@@ -668,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH22"/>
+  <dimension ref="A1:BI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,19 +858,22 @@
       <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:61">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1020,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>60.38</v>
+        <v>0</v>
       </c>
       <c r="BD2">
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>697.4400000000001</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1037,19 +1043,22 @@
       <c r="BH2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:61">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1202,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>262.37</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>60.38</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -1219,16 +1228,19 @@
       <c r="BH3">
         <v>0</v>
       </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:61">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>87</v>
@@ -1384,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>251.87</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>105.26</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -1401,19 +1413,22 @@
       <c r="BH4">
         <v>0</v>
       </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:61">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1566,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>299.85</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>757.42</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -1583,19 +1598,22 @@
       <c r="BH5">
         <v>0</v>
       </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:61">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1748,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>187.41</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>262.37</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -1765,19 +1783,22 @@
       <c r="BH6">
         <v>0</v>
       </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:61">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1930,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>757.42</v>
+        <v>0</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>187.41</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -1947,19 +1968,22 @@
       <c r="BH7">
         <v>0</v>
       </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:61">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2112,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>157.42</v>
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>0</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>299.85</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -2129,19 +2153,22 @@
       <c r="BH8">
         <v>0</v>
       </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:61">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2294,14 +2321,14 @@
         <v>0</v>
       </c>
       <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
         <v>374.81</v>
       </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
       <c r="BF9">
         <v>0</v>
       </c>
@@ -2311,19 +2338,22 @@
       <c r="BH9">
         <v>0</v>
       </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:61">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2476,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>697.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="BD10">
         <v>0</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>157.42</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -2493,19 +2523,22 @@
       <c r="BH10">
         <v>0</v>
       </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:61">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2658,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>105.26</v>
+        <v>0</v>
       </c>
       <c r="BD11">
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>251.87</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -2675,19 +2708,22 @@
       <c r="BH11">
         <v>0</v>
       </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:61">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2840,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>374.81</v>
+        <v>0</v>
       </c>
       <c r="BD12">
         <v>0</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>1874.05</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -2857,19 +2893,22 @@
       <c r="BH12">
         <v>0</v>
       </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:61">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3022,14 +3061,14 @@
         <v>0</v>
       </c>
       <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
         <v>71.97</v>
       </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
       <c r="BF13">
         <v>0</v>
       </c>
@@ -3039,19 +3078,22 @@
       <c r="BH13">
         <v>0</v>
       </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:61">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3204,14 +3246,14 @@
         <v>0</v>
       </c>
       <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
         <v>180.45</v>
       </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
       <c r="BF14">
         <v>0</v>
       </c>
@@ -3221,19 +3263,22 @@
       <c r="BH14">
         <v>0</v>
       </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:61">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3386,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>75.19</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <v>0</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>126.32</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -3403,19 +3448,22 @@
       <c r="BH15">
         <v>0</v>
       </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:61">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3568,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>112.78</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>75.19</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -3585,19 +3633,22 @@
       <c r="BH16">
         <v>0</v>
       </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:61">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3750,14 +3801,14 @@
         <v>0</v>
       </c>
       <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
         <v>120.3</v>
       </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
       <c r="BF17">
         <v>0</v>
       </c>
@@ -3767,19 +3818,22 @@
       <c r="BH17">
         <v>0</v>
       </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:61">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3932,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>126.32</v>
+        <v>0</v>
       </c>
       <c r="BD18">
         <v>0</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>112.78</v>
       </c>
       <c r="BF18">
         <v>0</v>
@@ -3949,19 +4003,22 @@
       <c r="BH18">
         <v>0</v>
       </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:61">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4114,14 +4171,14 @@
         <v>0</v>
       </c>
       <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
         <v>252.63</v>
       </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
       <c r="BF19">
         <v>0</v>
       </c>
@@ -4131,19 +4188,22 @@
       <c r="BH19">
         <v>0</v>
       </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:61">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4296,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>1874.05</v>
+        <v>0</v>
       </c>
       <c r="BD20">
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>374.81</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -4313,19 +4373,22 @@
       <c r="BH20">
         <v>0</v>
       </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:61">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4478,14 +4541,14 @@
         <v>0</v>
       </c>
       <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
         <v>187.41</v>
       </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
       <c r="BF21">
         <v>0</v>
       </c>
@@ -4495,19 +4558,22 @@
       <c r="BH21">
         <v>0</v>
       </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:61">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4660,14 +4726,14 @@
         <v>0</v>
       </c>
       <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
         <v>26.32</v>
       </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>0</v>
-      </c>
       <c r="BF22">
         <v>0</v>
       </c>
@@ -4675,6 +4741,9 @@
         <v>0</v>
       </c>
       <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
         <v>0</v>
       </c>
     </row>

--- a/Data/gpm_data1.xlsx
+++ b/Data/gpm_data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>BSL NO</t>
   </si>
@@ -208,124 +208,124 @@
     <t>GPMNAME</t>
   </si>
   <si>
-    <t>Esoral</t>
-  </si>
-  <si>
-    <t>Losectil</t>
-  </si>
-  <si>
-    <t>Rabifast</t>
-  </si>
-  <si>
-    <t>Softi</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Softi Ointment 15gm</t>
-  </si>
-  <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>24's</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>42's</t>
-  </si>
-  <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
-  </si>
-  <si>
-    <t>500's</t>
-  </si>
-  <si>
-    <t>15gm</t>
-  </si>
-  <si>
-    <t>Mr. Mohammad Akhter Alam Khan</t>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40 's</t>
+  </si>
+  <si>
+    <t>Mr. Md. Tafsir Bashar</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL22"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,16 +885,16 @@
     </row>
     <row r="2" spans="1:64">
       <c r="A2">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>262.37</v>
+        <v>179.91</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL2" t="s">
         <v>103</v>
@@ -1079,16 +1079,16 @@
     </row>
     <row r="3" spans="1:64">
       <c r="A3">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>299.85</v>
+        <v>224.89</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL3" t="s">
         <v>103</v>
@@ -1273,16 +1273,16 @@
     </row>
     <row r="4" spans="1:64">
       <c r="A4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>697.4400000000001</v>
+        <v>157.42</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL4" t="s">
         <v>103</v>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="5" spans="1:64">
       <c r="A5">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>157.42</v>
+        <v>224.89</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL5" t="s">
         <v>103</v>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="6" spans="1:64">
       <c r="A6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>187.41</v>
+        <v>359.82</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL6" t="s">
         <v>103</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="7" spans="1:64">
       <c r="A7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="BE7">
-        <v>105.26</v>
+        <v>224.89</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL7" t="s">
         <v>103</v>
@@ -2049,16 +2049,16 @@
     </row>
     <row r="8" spans="1:64">
       <c r="A8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="BE8">
-        <v>251.87</v>
+        <v>359.82</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="BK8">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL8" t="s">
         <v>103</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="9" spans="1:64">
       <c r="A9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="BE9">
-        <v>60.38</v>
+        <v>179.91</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="BK9">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL9" t="s">
         <v>103</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row r="10" spans="1:64">
       <c r="A10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="BE10">
-        <v>374.81</v>
+        <v>112.44</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="BK10">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL10" t="s">
         <v>103</v>
@@ -2631,16 +2631,16 @@
     </row>
     <row r="11" spans="1:64">
       <c r="A11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>757.42</v>
+        <v>187.41</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="BK11">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL11" t="s">
         <v>103</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="12" spans="1:64">
       <c r="A12">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="BE12">
-        <v>126.32</v>
+        <v>224.89</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="BK12">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL12" t="s">
         <v>103</v>
@@ -3019,16 +3019,16 @@
     </row>
     <row r="13" spans="1:64">
       <c r="A13">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="BE13">
-        <v>112.78</v>
+        <v>112.44</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="BK13">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL13" t="s">
         <v>103</v>
@@ -3213,16 +3213,16 @@
     </row>
     <row r="14" spans="1:64">
       <c r="A14">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="BE14">
-        <v>71.97</v>
+        <v>179.91</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="BK14">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL14" t="s">
         <v>103</v>
@@ -3407,16 +3407,16 @@
     </row>
     <row r="15" spans="1:64">
       <c r="A15">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="BE15">
-        <v>180.45</v>
+        <v>269.87</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="BK15">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL15" t="s">
         <v>103</v>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="16" spans="1:64">
       <c r="A16">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="BE16">
-        <v>120.3</v>
+        <v>224.89</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="BK16">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL16" t="s">
         <v>103</v>
@@ -3795,16 +3795,16 @@
     </row>
     <row r="17" spans="1:64">
       <c r="A17">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="BE17">
-        <v>75.19</v>
+        <v>179.91</v>
       </c>
       <c r="BF17">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL17" t="s">
         <v>103</v>
@@ -3989,16 +3989,16 @@
     </row>
     <row r="18" spans="1:64">
       <c r="A18">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="BE18">
-        <v>252.63</v>
+        <v>299.85</v>
       </c>
       <c r="BF18">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL18" t="s">
         <v>103</v>
@@ -4183,16 +4183,16 @@
     </row>
     <row r="19" spans="1:64">
       <c r="A19">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="BE19">
-        <v>374.81</v>
+        <v>149.93</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="BK19">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL19" t="s">
         <v>103</v>
@@ -4377,16 +4377,16 @@
     </row>
     <row r="20" spans="1:64">
       <c r="A20">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>1874.05</v>
+        <v>194.9</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="BK20">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL20" t="s">
         <v>103</v>
@@ -4571,16 +4571,16 @@
     </row>
     <row r="21" spans="1:64">
       <c r="A21">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4757,203 +4757,9 @@
         <v>0</v>
       </c>
       <c r="BK21">
-        <v>3099</v>
+        <v>3216</v>
       </c>
       <c r="BL21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:64">
-      <c r="A22">
-        <v>165</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>26.32</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <v>0</v>
-      </c>
-      <c r="BI22">
-        <v>0</v>
-      </c>
-      <c r="BJ22">
-        <v>0</v>
-      </c>
-      <c r="BK22">
-        <v>3099</v>
-      </c>
-      <c r="BL22" t="s">
         <v>103</v>
       </c>
     </row>
